--- a/Voca.xlsx
+++ b/Voca.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="811">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="819">
   <si>
     <t>API</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3414,6 +3414,38 @@
   </si>
   <si>
     <t>직선</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>azimuth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방위각</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sphere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>radius</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반지름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>diameter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지름</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7647,10 +7679,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C31"/>
+  <dimension ref="B2:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7708,10 +7740,10 @@
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B8" t="s">
+      <c r="B8" s="35" t="s">
         <v>684</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="35" t="s">
         <v>686</v>
       </c>
     </row>
@@ -7741,9 +7773,10 @@
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="37" t="s">
         <v>683</v>
       </c>
+      <c r="C14" s="35"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="30" t="s">
@@ -7879,6 +7912,38 @@
       </c>
       <c r="C31" s="30" t="s">
         <v>805</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>811</v>
+      </c>
+      <c r="C32" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>813</v>
+      </c>
+      <c r="C33" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>815</v>
+      </c>
+      <c r="C34" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>817</v>
+      </c>
+      <c r="C35" t="s">
+        <v>818</v>
       </c>
     </row>
   </sheetData>

--- a/Voca.xlsx
+++ b/Voca.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NAMING" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="819">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="823">
   <si>
     <t>API</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2355,10 +2355,6 @@
   </si>
   <si>
     <t>[Light]램버트 코사인 법칙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Blinn–Phong reflection model</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -3446,6 +3442,26 @@
   </si>
   <si>
     <t>지름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>음영 (색칠하기, 색칠놀이…)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블린-퐁 (반영) 반사 모델</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Blinn-Phong (specular) reflection model</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쿡-토런스 (금속 반사)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3570,7 +3586,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -3657,6 +3673,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -5602,13 +5619,13 @@
         <v>121</v>
       </c>
       <c r="C97" s="11" t="s">
+        <v>805</v>
+      </c>
+      <c r="D97" s="8" t="s">
         <v>806</v>
       </c>
-      <c r="D97" s="8" t="s">
+      <c r="E97" s="8" t="s">
         <v>807</v>
-      </c>
-      <c r="E97" s="8" t="s">
-        <v>808</v>
       </c>
     </row>
   </sheetData>
@@ -5972,7 +5989,7 @@
       </c>
       <c r="D28" s="18"/>
       <c r="F28" s="22" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="29" spans="2:6" x14ac:dyDescent="0.3">
@@ -6193,206 +6210,206 @@
     </row>
     <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B55" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="C55" s="8" t="s">
         <v>637</v>
-      </c>
-      <c r="C55" s="8" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="56" spans="2:4" ht="40.5" x14ac:dyDescent="0.3">
       <c r="C56" s="8" t="s">
+        <v>752</v>
+      </c>
+      <c r="D56" s="9" t="s">
         <v>753</v>
-      </c>
-      <c r="D56" s="9" t="s">
-        <v>754</v>
       </c>
     </row>
     <row r="57" spans="2:4" ht="40.5" x14ac:dyDescent="0.3">
       <c r="C57" s="8" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="58" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C58" s="14" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="D58" s="14" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="59" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B59" s="11" t="s">
+        <v>739</v>
+      </c>
+      <c r="C59" s="11" t="s">
         <v>740</v>
       </c>
-      <c r="C59" s="11" t="s">
-        <v>741</v>
-      </c>
       <c r="D59" s="11" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="60" spans="2:4" ht="135" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="C60" s="8" t="s">
+        <v>749</v>
+      </c>
+      <c r="D60" s="9" t="s">
         <v>750</v>
-      </c>
-      <c r="D60" s="9" t="s">
-        <v>751</v>
       </c>
     </row>
     <row r="61" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B61" s="11" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="62" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B62" s="11" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="C62" s="11" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="63" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
+        <v>736</v>
+      </c>
+      <c r="C63" s="8" t="s">
         <v>737</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>738</v>
       </c>
     </row>
     <row r="64" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B64" s="11" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="65" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B65" s="8" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="66" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B66" s="8" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="67" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B67" s="8" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="68" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B68" s="8" t="s">
+        <v>770</v>
+      </c>
+      <c r="C68" s="8" t="s">
         <v>771</v>
       </c>
-      <c r="C68" s="8" t="s">
+      <c r="D68" s="8" t="s">
         <v>772</v>
-      </c>
-      <c r="D68" s="8" t="s">
-        <v>773</v>
       </c>
     </row>
     <row r="69" spans="2:6" ht="27.75" x14ac:dyDescent="0.3">
       <c r="B69" s="8" t="s">
+        <v>774</v>
+      </c>
+      <c r="C69" s="8" t="s">
         <v>775</v>
       </c>
-      <c r="C69" s="8" t="s">
+      <c r="D69" s="9" t="s">
         <v>776</v>
       </c>
-      <c r="D69" s="9" t="s">
-        <v>777</v>
-      </c>
       <c r="E69" s="9" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="F69" s="22" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="70" spans="2:6" x14ac:dyDescent="0.3">
       <c r="C70" s="8" t="s">
+        <v>777</v>
+      </c>
+      <c r="F70" s="8" t="s">
         <v>778</v>
-      </c>
-      <c r="F70" s="8" t="s">
-        <v>779</v>
       </c>
     </row>
     <row r="71" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B71" s="8" t="s">
+        <v>785</v>
+      </c>
+      <c r="C71" s="11" t="s">
         <v>786</v>
       </c>
-      <c r="C71" s="11" t="s">
+      <c r="D71" s="11" t="s">
         <v>787</v>
-      </c>
-      <c r="D71" s="11" t="s">
-        <v>788</v>
       </c>
     </row>
     <row r="72" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B72" s="8" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="C72" s="11" t="s">
+        <v>788</v>
+      </c>
+      <c r="D72" s="11" t="s">
         <v>789</v>
-      </c>
-      <c r="D72" s="11" t="s">
-        <v>790</v>
       </c>
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B73" s="8" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="74" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B74" s="8" t="s">
+        <v>797</v>
+      </c>
+      <c r="C74" s="8" t="s">
         <v>798</v>
       </c>
-      <c r="C74" s="8" t="s">
-        <v>799</v>
-      </c>
       <c r="D74" s="8" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="75" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
+        <v>800</v>
+      </c>
+      <c r="C75" s="8" t="s">
         <v>801</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>802</v>
       </c>
     </row>
   </sheetData>
@@ -6404,10 +6421,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E120"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="C121" sqref="C121"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6452,10 +6469,10 @@
         <v>2</v>
       </c>
       <c r="C3" s="14" t="s">
+        <v>580</v>
+      </c>
+      <c r="D3" s="24" t="s">
         <v>581</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -6480,7 +6497,7 @@
         <v>352</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -6607,10 +6624,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="D17" s="20"/>
     </row>
@@ -6633,7 +6650,7 @@
         <v>372</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.3">
@@ -6727,7 +6744,7 @@
         <v>390</v>
       </c>
       <c r="E27" s="26" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.3">
@@ -6749,7 +6766,7 @@
         <v>451</v>
       </c>
       <c r="C29" s="14" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="D29" s="24"/>
       <c r="E29" s="10" t="s">
@@ -6885,10 +6902,10 @@
         <v>40</v>
       </c>
       <c r="C41" s="14" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -7101,10 +7118,10 @@
         <v>61</v>
       </c>
       <c r="B62" s="11" t="s">
+        <v>717</v>
+      </c>
+      <c r="C62" s="11" t="s">
         <v>718</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>719</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -7112,10 +7129,10 @@
         <v>62</v>
       </c>
       <c r="B63" s="11" t="s">
+        <v>715</v>
+      </c>
+      <c r="C63" s="11" t="s">
         <v>716</v>
-      </c>
-      <c r="C63" s="11" t="s">
-        <v>717</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -7126,10 +7143,10 @@
         <v>556</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D64" s="20" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -7167,13 +7184,13 @@
         <v>67</v>
       </c>
       <c r="B68" s="11" t="s">
+        <v>589</v>
+      </c>
+      <c r="C68" s="14" t="s">
         <v>590</v>
       </c>
-      <c r="C68" s="14" t="s">
+      <c r="D68" s="19" t="s">
         <v>591</v>
-      </c>
-      <c r="D68" s="19" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -7184,7 +7201,7 @@
         <v>569</v>
       </c>
       <c r="C69" s="14" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="D69" s="24" t="s">
         <v>576</v>
@@ -7228,7 +7245,7 @@
         <v>72</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="D73" s="24"/>
     </row>
@@ -7237,7 +7254,7 @@
         <v>73</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="D74" s="24" t="s">
         <v>577</v>
@@ -7248,7 +7265,10 @@
         <v>74</v>
       </c>
       <c r="C75" s="11" t="s">
-        <v>578</v>
+        <v>821</v>
+      </c>
+      <c r="D75" s="19" t="s">
+        <v>820</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.3">
@@ -7256,418 +7276,432 @@
         <v>75</v>
       </c>
       <c r="C76" s="15" t="s">
+        <v>578</v>
+      </c>
+      <c r="D76" s="19" t="s">
         <v>579</v>
-      </c>
-      <c r="D76" s="19" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A77" s="19">
-        <v>76</v>
-      </c>
-      <c r="C77" s="15" t="s">
-        <v>721</v>
+        <v>75</v>
+      </c>
+      <c r="C77" s="14" t="s">
+        <v>818</v>
+      </c>
+      <c r="D77" s="28" t="s">
+        <v>819</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A78" s="19">
-        <v>77</v>
-      </c>
-      <c r="C78" s="25" t="s">
-        <v>587</v>
-      </c>
-      <c r="D78" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C78" s="15" t="s">
         <v>720</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A79" s="19">
-        <v>78</v>
-      </c>
-      <c r="C79" s="14" t="s">
-        <v>723</v>
-      </c>
-      <c r="D79" s="28" t="s">
-        <v>722</v>
+        <v>77</v>
+      </c>
+      <c r="C79" s="25" t="s">
+        <v>586</v>
+      </c>
+      <c r="D79" s="33" t="s">
+        <v>719</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A80" s="19">
+        <v>78</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>722</v>
+      </c>
+      <c r="D80" s="28" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A81" s="19">
         <v>79</v>
       </c>
-      <c r="C80" s="15" t="s">
-        <v>588</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" ht="27.75" x14ac:dyDescent="0.3">
-      <c r="A81" s="19">
+      <c r="C81" s="15" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="27.75" x14ac:dyDescent="0.3">
+      <c r="A82" s="19">
         <v>80</v>
       </c>
-      <c r="C81" s="14" t="s">
-        <v>600</v>
-      </c>
-      <c r="D81" s="24" t="s">
-        <v>595</v>
-      </c>
-      <c r="E81" s="27" t="s">
-        <v>603</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="19">
-        <v>81</v>
-      </c>
-      <c r="C82" s="15" t="s">
-        <v>598</v>
-      </c>
-      <c r="D82" s="26" t="s">
+      <c r="C82" s="14" t="s">
         <v>599</v>
+      </c>
+      <c r="D82" s="24" t="s">
+        <v>594</v>
+      </c>
+      <c r="E82" s="27" t="s">
+        <v>602</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="19">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>601</v>
-      </c>
-      <c r="D83" s="19" t="s">
-        <v>602</v>
+        <v>597</v>
+      </c>
+      <c r="D83" s="26" t="s">
+        <v>598</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="19">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>604</v>
+        <v>600</v>
       </c>
       <c r="D84" s="19" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="19">
-        <v>84</v>
-      </c>
-      <c r="C85" s="14" t="s">
-        <v>605</v>
-      </c>
-      <c r="D85" s="28" t="s">
-        <v>622</v>
+        <v>83</v>
+      </c>
+      <c r="C85" s="15" t="s">
+        <v>603</v>
+      </c>
+      <c r="D85" s="19" t="s">
+        <v>607</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="19">
-        <v>85</v>
-      </c>
-      <c r="C86" s="15" t="s">
-        <v>606</v>
+        <v>84</v>
+      </c>
+      <c r="C86" s="14" t="s">
+        <v>604</v>
+      </c>
+      <c r="D86" s="28" t="s">
+        <v>621</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="19">
-        <v>86</v>
-      </c>
-      <c r="B87" s="15" t="s">
-        <v>609</v>
-      </c>
-      <c r="C87" s="14" t="s">
-        <v>648</v>
-      </c>
-      <c r="D87" s="24"/>
+        <v>85</v>
+      </c>
+      <c r="C87" s="15" t="s">
+        <v>605</v>
+      </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="19">
-        <v>87</v>
-      </c>
-      <c r="C88" s="11" t="s">
-        <v>611</v>
-      </c>
-      <c r="D88" s="19" t="s">
-        <v>610</v>
-      </c>
+        <v>86</v>
+      </c>
+      <c r="B88" s="15" t="s">
+        <v>608</v>
+      </c>
+      <c r="C88" s="14" t="s">
+        <v>647</v>
+      </c>
+      <c r="D88" s="24"/>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A89" s="19">
+        <v>87</v>
+      </c>
+      <c r="C89" s="11" t="s">
+        <v>610</v>
+      </c>
+      <c r="D89" s="19" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="19">
         <v>88</v>
       </c>
-      <c r="B89" s="15" t="s">
-        <v>613</v>
-      </c>
-      <c r="C89" s="15" t="s">
+      <c r="B90" s="15" t="s">
         <v>612</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B90" s="15" t="s">
-        <v>614</v>
-      </c>
       <c r="C90" s="15" t="s">
-        <v>615</v>
+        <v>611</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B91" s="15" t="s">
+        <v>613</v>
+      </c>
+      <c r="C91" s="15" t="s">
+        <v>614</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B92" s="15" t="s">
+        <v>616</v>
+      </c>
+      <c r="C92" s="15" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C93" s="15" t="s">
         <v>617</v>
       </c>
-      <c r="C91" s="15" t="s">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C92" s="15" t="s">
+      <c r="D93" s="19" t="s">
         <v>618</v>
       </c>
-      <c r="D92" s="19" t="s">
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B94" s="15" t="s">
         <v>619</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B93" s="15" t="s">
+      <c r="C94" s="11" t="s">
         <v>620</v>
       </c>
-      <c r="C93" s="11" t="s">
-        <v>621</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C94" s="15" t="s">
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="C95" s="15" t="s">
+        <v>622</v>
+      </c>
+      <c r="E95" s="19" t="s">
         <v>623</v>
       </c>
-      <c r="E94" s="19" t="s">
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B96" s="15" t="s">
         <v>624</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B95" s="15" t="s">
+      <c r="C96" s="15" t="s">
         <v>625</v>
       </c>
-      <c r="C95" s="15" t="s">
+    </row>
+    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B97" s="19" t="s">
         <v>626</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B96" s="19" t="s">
+      <c r="C97" s="15" t="s">
         <v>627</v>
       </c>
-      <c r="C96" s="15" t="s">
+    </row>
+    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C98" s="15" t="s">
         <v>628</v>
       </c>
-    </row>
-    <row r="97" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C97" s="15" t="s">
+      <c r="D98" s="19" t="s">
         <v>629</v>
       </c>
-      <c r="D97" s="19" t="s">
+      <c r="E98" s="19" t="s">
         <v>630</v>
       </c>
-      <c r="E97" s="19" t="s">
+    </row>
+    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B99" s="15" t="s">
+        <v>632</v>
+      </c>
+      <c r="C99" s="15" t="s">
         <v>631</v>
       </c>
-    </row>
-    <row r="98" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B98" s="15" t="s">
+      <c r="D99" s="19" t="s">
         <v>633</v>
       </c>
-      <c r="C98" s="15" t="s">
-        <v>632</v>
-      </c>
-      <c r="D98" s="19" t="s">
+    </row>
+    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C100" s="11" t="s">
         <v>634</v>
       </c>
-    </row>
-    <row r="99" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C99" s="11" t="s">
+      <c r="D100" s="26" t="s">
         <v>635</v>
       </c>
-      <c r="D99" s="26" t="s">
-        <v>636</v>
-      </c>
-    </row>
-    <row r="100" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C100" s="15" t="s">
+    </row>
+    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C101" s="16" t="s">
+        <v>639</v>
+      </c>
+      <c r="D101" s="38" t="s">
         <v>640</v>
       </c>
-      <c r="D100" s="19" t="s">
-        <v>641</v>
-      </c>
-    </row>
-    <row r="101" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C101" s="15" t="s">
+    </row>
+    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C102" s="16" t="s">
+        <v>642</v>
+      </c>
+      <c r="D102" s="38" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C103" s="14" t="s">
         <v>643</v>
       </c>
-    </row>
-    <row r="102" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C102" s="14" t="s">
+      <c r="D103" s="24"/>
+      <c r="E103" s="19" t="s">
         <v>644</v>
-      </c>
-      <c r="D102" s="24"/>
-      <c r="E102" s="19" t="s">
-        <v>645</v>
-      </c>
-    </row>
-    <row r="103" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B103" s="15" t="s">
-        <v>647</v>
-      </c>
-      <c r="C103" s="11" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="104" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B104" s="15" t="s">
+        <v>646</v>
+      </c>
+      <c r="C104" s="11" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="105" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B105" s="15" t="s">
+        <v>649</v>
+      </c>
+      <c r="C105" s="15" t="s">
+        <v>648</v>
+      </c>
+      <c r="E105" s="19" t="s">
         <v>650</v>
       </c>
-      <c r="C104" s="15" t="s">
-        <v>649</v>
-      </c>
-      <c r="E104" s="19" t="s">
+    </row>
+    <row r="106" spans="2:5" ht="27.75" x14ac:dyDescent="0.3">
+      <c r="C106" s="15" t="s">
+        <v>686</v>
+      </c>
+      <c r="D106" s="32" t="s">
+        <v>705</v>
+      </c>
+      <c r="E106" s="19" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="105" spans="2:5" ht="27.75" x14ac:dyDescent="0.3">
-      <c r="C105" s="15" t="s">
-        <v>687</v>
-      </c>
-      <c r="D105" s="32" t="s">
-        <v>706</v>
-      </c>
-      <c r="E105" s="19" t="s">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="106" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C106" s="11" t="s">
+    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C107" s="11" t="s">
+        <v>654</v>
+      </c>
+      <c r="D107" s="19" t="s">
         <v>655</v>
-      </c>
-      <c r="D106" s="19" t="s">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="107" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B107" s="15" t="s">
-        <v>659</v>
-      </c>
-      <c r="C107" s="11" t="s">
-        <v>668</v>
-      </c>
-      <c r="D107" s="19" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="108" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B108" s="15" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="C108" s="11" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="D108" s="19" t="s">
-        <v>667</v>
+        <v>659</v>
       </c>
     </row>
     <row r="109" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B109" s="15" t="s">
+        <v>660</v>
+      </c>
       <c r="C109" s="11" t="s">
+        <v>668</v>
+      </c>
+      <c r="D109" s="19" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="110" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C110" s="11" t="s">
+        <v>663</v>
+      </c>
+      <c r="D110" s="19" t="s">
         <v>664</v>
       </c>
-      <c r="D109" s="19" t="s">
-        <v>665</v>
-      </c>
-    </row>
-    <row r="110" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B110" s="15" t="s">
+    </row>
+    <row r="111" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B111" s="15" t="s">
+        <v>671</v>
+      </c>
+      <c r="C111" s="15" t="s">
         <v>672</v>
       </c>
-      <c r="C110" s="15" t="s">
+      <c r="D111" s="19" t="s">
         <v>673</v>
       </c>
-      <c r="D110" s="19" t="s">
+    </row>
+    <row r="112" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C112" s="11" t="s">
         <v>674</v>
       </c>
-    </row>
-    <row r="111" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C111" s="11" t="s">
-        <v>675</v>
-      </c>
-      <c r="D111" s="26" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="112" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C112" s="15" t="s">
-        <v>707</v>
+      <c r="D112" s="26" t="s">
+        <v>725</v>
       </c>
     </row>
     <row r="113" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C113" s="15" t="s">
-        <v>712</v>
-      </c>
-      <c r="D113" s="19" t="s">
-        <v>713</v>
+        <v>706</v>
       </c>
     </row>
     <row r="114" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C114" s="15" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="D114" s="19" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="115" spans="2:4" x14ac:dyDescent="0.3">
       <c r="C115" s="15" t="s">
+        <v>714</v>
+      </c>
+      <c r="D115" s="19" t="s">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C116" s="15" t="s">
+        <v>723</v>
+      </c>
+      <c r="D116" s="19" t="s">
         <v>724</v>
-      </c>
-      <c r="D115" s="19" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="116" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B116" s="15" t="s">
-        <v>729</v>
-      </c>
-      <c r="C116" s="15" t="s">
-        <v>730</v>
-      </c>
-      <c r="D116" s="19" t="s">
-        <v>731</v>
       </c>
     </row>
     <row r="117" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B117" s="15" t="s">
-        <v>743</v>
-      </c>
-      <c r="C117" s="11" t="s">
-        <v>742</v>
+        <v>728</v>
+      </c>
+      <c r="C117" s="15" t="s">
+        <v>729</v>
+      </c>
+      <c r="D117" s="19" t="s">
+        <v>730</v>
       </c>
     </row>
     <row r="118" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B118" s="15" t="s">
-        <v>764</v>
+        <v>742</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>763</v>
+        <v>741</v>
       </c>
     </row>
     <row r="119" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B119" s="15" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>766</v>
+        <v>762</v>
       </c>
     </row>
     <row r="120" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B120" s="15" t="s">
+        <v>764</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B121" s="15" t="s">
+        <v>766</v>
+      </c>
+      <c r="C121" s="11" t="s">
         <v>767</v>
       </c>
-      <c r="C120" s="11" t="s">
+      <c r="D121" s="19" t="s">
         <v>768</v>
-      </c>
-      <c r="D120" s="19" t="s">
-        <v>769</v>
       </c>
     </row>
   </sheetData>
@@ -7681,7 +7715,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+    <sheetView topLeftCell="A28" workbookViewId="0">
       <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
@@ -7693,257 +7727,257 @@
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>808</v>
+      </c>
+      <c r="C2" t="s">
         <v>809</v>
-      </c>
-      <c r="C2" t="s">
-        <v>810</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
+        <v>652</v>
+      </c>
+      <c r="C3" t="s">
         <v>653</v>
-      </c>
-      <c r="C3" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
+        <v>656</v>
+      </c>
+      <c r="C4" t="s">
         <v>657</v>
-      </c>
-      <c r="C4" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B5" s="37" t="s">
+        <v>661</v>
+      </c>
+      <c r="C5" s="37" t="s">
         <v>662</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B6" s="37" t="s">
+        <v>669</v>
+      </c>
+      <c r="C6" s="37" t="s">
         <v>670</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>671</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B7" s="30" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B8" s="35" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B12" s="31" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B13" s="31" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B14" s="37" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C14" s="35"/>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B15" s="30" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B16" s="30" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B17" s="30" t="s">
+        <v>695</v>
+      </c>
+      <c r="C17" s="30" t="s">
         <v>696</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>697</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B18" s="31" t="s">
+        <v>699</v>
+      </c>
+      <c r="C18" s="31" t="s">
         <v>700</v>
-      </c>
-      <c r="C18" s="31" t="s">
-        <v>701</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B19" s="31" t="s">
+        <v>697</v>
+      </c>
+      <c r="C19" s="31" t="s">
         <v>698</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>699</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
+        <v>691</v>
+      </c>
+      <c r="C20" t="s">
         <v>692</v>
-      </c>
-      <c r="C20" t="s">
-        <v>693</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B21" s="31" t="s">
+        <v>693</v>
+      </c>
+      <c r="C21" t="s">
         <v>694</v>
-      </c>
-      <c r="C21" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B22" s="31" t="s">
+        <v>701</v>
+      </c>
+      <c r="C22" t="s">
         <v>702</v>
-      </c>
-      <c r="C22" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B23" s="30" t="s">
+        <v>703</v>
+      </c>
+      <c r="C23" s="30" t="s">
         <v>704</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>705</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B24" s="31" t="s">
+        <v>707</v>
+      </c>
+      <c r="C24" t="s">
         <v>708</v>
-      </c>
-      <c r="C24" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B25" s="34" t="s">
+        <v>726</v>
+      </c>
+      <c r="C25" s="35" t="s">
         <v>727</v>
-      </c>
-      <c r="C25" s="35" t="s">
-        <v>728</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B26" s="31" t="s">
+        <v>732</v>
+      </c>
+      <c r="C26" t="s">
         <v>733</v>
-      </c>
-      <c r="C26" t="s">
-        <v>734</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B27" s="31" t="s">
+        <v>781</v>
+      </c>
+      <c r="C27" t="s">
         <v>782</v>
-      </c>
-      <c r="C27" t="s">
-        <v>783</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B28" s="30" t="s">
+        <v>783</v>
+      </c>
+      <c r="C28" t="s">
         <v>784</v>
-      </c>
-      <c r="C28" t="s">
-        <v>785</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B29" s="36" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C29" s="36" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B30" s="31" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="C30" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B31" s="30" t="s">
+        <v>803</v>
+      </c>
+      <c r="C31" s="30" t="s">
         <v>804</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>805</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
+        <v>810</v>
+      </c>
+      <c r="C32" t="s">
         <v>811</v>
-      </c>
-      <c r="C32" t="s">
-        <v>812</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
+        <v>812</v>
+      </c>
+      <c r="C33" t="s">
         <v>813</v>
-      </c>
-      <c r="C33" t="s">
-        <v>814</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
+        <v>814</v>
+      </c>
+      <c r="C34" t="s">
         <v>815</v>
-      </c>
-      <c r="C34" t="s">
-        <v>816</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
+        <v>816</v>
+      </c>
+      <c r="C35" t="s">
         <v>817</v>
-      </c>
-      <c r="C35" t="s">
-        <v>818</v>
       </c>
     </row>
   </sheetData>
@@ -8007,18 +8041,18 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>584</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>585</v>
       </c>
     </row>
   </sheetData>

--- a/Voca.xlsx
+++ b/Voca.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NAMING" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="912" uniqueCount="823">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="829">
   <si>
     <t>API</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3462,6 +3462,30 @@
   </si>
   <si>
     <t>쿡-토런스 (금속 반사)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>latency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지연</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>recursively</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>iteratively</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BCD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Binary Coded Decimal</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5637,10 +5661,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="D74" sqref="D74"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6412,6 +6436,32 @@
         <v>801</v>
       </c>
     </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C76" s="14" t="s">
+        <v>823</v>
+      </c>
+      <c r="D76" s="14" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C77" s="8" t="s">
+        <v>825</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="C78" s="8" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B79" s="8" t="s">
+        <v>827</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>828</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6423,7 +6473,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+    <sheetView topLeftCell="A94" workbookViewId="0">
       <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>

--- a/Voca.xlsx
+++ b/Voca.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="NAMING" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="918" uniqueCount="829">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="843">
   <si>
     <t>API</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3486,6 +3486,61 @@
   </si>
   <si>
     <t>Binary Coded Decimal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WPF</t>
+  </si>
+  <si>
+    <t>Windows Presentation Foundation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Extensible Application Markup Language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>XAML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HyperText Markup Language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HTML</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Interface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UX</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>User Experience</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UGUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(유니티)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NGUI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Next-Gen User Interface</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5661,10 +5716,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F84"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6462,6 +6517,46 @@
         <v>828</v>
       </c>
     </row>
+    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B80" s="14" t="s">
+        <v>829</v>
+      </c>
+      <c r="C80" s="14" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B81" s="8" t="s">
+        <v>832</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B82" s="12" t="s">
+        <v>834</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B83" s="11" t="s">
+        <v>836</v>
+      </c>
+      <c r="C83" s="11" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B84" s="11" t="s">
+        <v>837</v>
+      </c>
+      <c r="C84" s="11" t="s">
+        <v>838</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6471,10 +6566,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="C102" sqref="C102"/>
+    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="C123" sqref="C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7752,6 +7847,25 @@
       </c>
       <c r="D121" s="19" t="s">
         <v>768</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B122" s="15" t="s">
+        <v>839</v>
+      </c>
+      <c r="C122" s="15" t="s">
+        <v>839</v>
+      </c>
+      <c r="D122" s="19" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B123" s="15" t="s">
+        <v>841</v>
+      </c>
+      <c r="C123" s="15" t="s">
+        <v>842</v>
       </c>
     </row>
   </sheetData>

--- a/Voca.xlsx
+++ b/Voca.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NAMING" sheetId="7" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="843">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="935" uniqueCount="845">
   <si>
     <t>API</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3541,6 +3541,14 @@
   </si>
   <si>
     <t>Next-Gen User Interface</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fetch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(멀리 있는 것을)가져오기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4035,7 +4043,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F97"/>
   <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D98" sqref="D98"/>
     </sheetView>
   </sheetViews>
@@ -5716,10 +5724,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F84"/>
+  <dimension ref="A1:F85"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="D86" sqref="D86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6525,7 +6533,7 @@
         <v>830</v>
       </c>
     </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>832</v>
       </c>
@@ -6533,7 +6541,7 @@
         <v>831</v>
       </c>
     </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B82" s="12" t="s">
         <v>834</v>
       </c>
@@ -6541,7 +6549,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B83" s="11" t="s">
         <v>836</v>
       </c>
@@ -6549,12 +6557,20 @@
         <v>835</v>
       </c>
     </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B84" s="11" t="s">
         <v>837</v>
       </c>
       <c r="C84" s="11" t="s">
         <v>838</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="C85" s="8" t="s">
+        <v>843</v>
+      </c>
+      <c r="D85" s="8" t="s">
+        <v>844</v>
       </c>
     </row>
   </sheetData>
@@ -6568,8 +6584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="C123" sqref="C123"/>
+    <sheetView topLeftCell="A109" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
